--- a/server/LISTAS/mi/REGATON DE GOMA DISMAY.xlsx
+++ b/server/LISTAS/mi/REGATON DE GOMA DISMAY.xlsx
@@ -741,7 +741,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/mi/REGATON DE GOMA DISMAY.xlsx
+++ b/server/LISTAS/mi/REGATON DE GOMA DISMAY.xlsx
@@ -741,7 +741,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/mi/REGATON DE GOMA DISMAY.xlsx
+++ b/server/LISTAS/mi/REGATON DE GOMA DISMAY.xlsx
@@ -741,7 +741,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="C28" s="19" t="n"/>
       <c r="D28" s="5" t="n">
-        <v>6200</v>
+        <v>7530</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" s="16">
@@ -837,7 +837,7 @@
       </c>
       <c r="C29" s="19" t="n"/>
       <c r="D29" s="5" t="n">
-        <v>5742.18</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" s="16">
@@ -853,7 +853,7 @@
       </c>
       <c r="C30" s="19" t="n"/>
       <c r="D30" s="5" t="n">
-        <v>6862.8</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" s="16">
@@ -869,7 +869,7 @@
       </c>
       <c r="C31" s="19" t="n"/>
       <c r="D31" s="6" t="n">
-        <v>7531.98</v>
+        <v>10420</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" s="16">
@@ -885,7 +885,7 @@
       </c>
       <c r="C32" s="19" t="n"/>
       <c r="D32" s="5" t="n">
-        <v>7831.8</v>
+        <v>10830</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" s="16">
@@ -901,7 +901,7 @@
       </c>
       <c r="C33" s="19" t="n"/>
       <c r="D33" s="6" t="n">
-        <v>8276.4</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="16">
@@ -930,19 +930,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A36:D36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/REGATON DE GOMA DISMAY.xlsx
+++ b/server/LISTAS/mi/REGATON DE GOMA DISMAY.xlsx
@@ -741,7 +741,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/mi/REGATON DE GOMA DISMAY.xlsx
+++ b/server/LISTAS/mi/REGATON DE GOMA DISMAY.xlsx
@@ -741,7 +741,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -930,19 +930,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A36:D36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/REGATON DE GOMA DISMAY.xlsx
+++ b/server/LISTAS/mi/REGATON DE GOMA DISMAY.xlsx
@@ -741,7 +741,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -930,19 +930,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/REGATON DE GOMA DISMAY.xlsx
+++ b/server/LISTAS/mi/REGATON DE GOMA DISMAY.xlsx
@@ -741,7 +741,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -930,19 +930,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A36:D36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/REGATON DE GOMA DISMAY.xlsx
+++ b/server/LISTAS/mi/REGATON DE GOMA DISMAY.xlsx
@@ -741,7 +741,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="C28" s="19" t="n"/>
       <c r="D28" s="5" t="n">
-        <v>6200</v>
+        <v>8658</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" s="16">
@@ -837,7 +837,7 @@
       </c>
       <c r="C29" s="19" t="n"/>
       <c r="D29" s="5" t="n">
-        <v>5742.18</v>
+        <v>9139</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" s="16">
@@ -853,7 +853,7 @@
       </c>
       <c r="C30" s="19" t="n"/>
       <c r="D30" s="5" t="n">
-        <v>6862.8</v>
+        <v>10918</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" s="16">
@@ -869,7 +869,7 @@
       </c>
       <c r="C31" s="19" t="n"/>
       <c r="D31" s="6" t="n">
-        <v>7531.98</v>
+        <v>11980</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" s="16">
@@ -885,7 +885,7 @@
       </c>
       <c r="C32" s="19" t="n"/>
       <c r="D32" s="5" t="n">
-        <v>7831.8</v>
+        <v>12450</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" s="16">
@@ -901,7 +901,7 @@
       </c>
       <c r="C33" s="19" t="n"/>
       <c r="D33" s="6" t="n">
-        <v>8276.4</v>
+        <v>13280</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="16">
@@ -930,19 +930,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
